--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H2">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.0711453992741</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N2">
-        <v>3.0711453992741</v>
+        <v>10.412531</v>
       </c>
       <c r="O2">
-        <v>0.05247119903400454</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P2">
-        <v>0.05247119903400454</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q2">
-        <v>0.8633705456048562</v>
+        <v>1.448160928105334</v>
       </c>
       <c r="R2">
-        <v>0.8633705456048562</v>
+        <v>13.033448352948</v>
       </c>
       <c r="S2">
-        <v>0.05247119903400454</v>
+        <v>0.02642539557684253</v>
       </c>
       <c r="T2">
-        <v>0.05247119903400454</v>
+        <v>0.03109441187626991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H3">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.4857968873752</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N3">
-        <v>30.4857968873752</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5208565887391037</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P3">
-        <v>0.5208565887391037</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q3">
-        <v>8.570267984730748</v>
+        <v>13.45278082476933</v>
       </c>
       <c r="R3">
-        <v>8.570267984730748</v>
+        <v>121.075027422924</v>
       </c>
       <c r="S3">
-        <v>0.5208565887391037</v>
+        <v>0.2454803523584875</v>
       </c>
       <c r="T3">
-        <v>0.5208565887391037</v>
+        <v>0.2888534690642736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H4">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9240875172576321</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N4">
-        <v>0.9240875172576321</v>
+        <v>2.987976</v>
       </c>
       <c r="O4">
-        <v>0.01578823980601016</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P4">
-        <v>0.01578823980601016</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q4">
-        <v>0.2597825372090604</v>
+        <v>0.4155637181119999</v>
       </c>
       <c r="R4">
-        <v>0.2597825372090604</v>
+        <v>3.740073463008</v>
       </c>
       <c r="S4">
-        <v>0.01578823980601016</v>
+        <v>0.007583021627893508</v>
       </c>
       <c r="T4">
-        <v>0.01578823980601016</v>
+        <v>0.008922840798304412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1363 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.417236</v>
+      </c>
+      <c r="H5">
+        <v>1.251708</v>
+      </c>
+      <c r="I5">
+        <v>0.4673765452554602</v>
+      </c>
+      <c r="J5">
+        <v>0.4774473645966479</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.192074</v>
+      </c>
+      <c r="O5">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P5">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q5">
+        <v>0.165792062488</v>
+      </c>
+      <c r="R5">
+        <v>1.492128562392</v>
+      </c>
+      <c r="S5">
+        <v>0.003025299709251187</v>
+      </c>
+      <c r="T5">
+        <v>0.003559829972462273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.417236</v>
+      </c>
+      <c r="H6">
+        <v>1.251708</v>
+      </c>
+      <c r="I6">
+        <v>0.4673765452554602</v>
+      </c>
+      <c r="J6">
+        <v>0.4774473645966479</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.2807625</v>
+      </c>
+      <c r="N6">
+        <v>48.561525</v>
+      </c>
+      <c r="O6">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P6">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q6">
+        <v>10.13080822245</v>
+      </c>
+      <c r="R6">
+        <v>60.78484933470001</v>
+      </c>
+      <c r="S6">
+        <v>0.1848624759829855</v>
+      </c>
+      <c r="T6">
+        <v>0.1450168128853377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.236933</v>
+      </c>
+      <c r="H7">
+        <v>0.710799</v>
+      </c>
+      <c r="I7">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J7">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N7">
+        <v>10.412531</v>
+      </c>
+      <c r="O7">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P7">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q7">
+        <v>0.8223574024743333</v>
+      </c>
+      <c r="R7">
+        <v>7.401216622269001</v>
+      </c>
+      <c r="S7">
+        <v>0.0150060115862678</v>
+      </c>
+      <c r="T7">
+        <v>0.01765737445733412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.236933</v>
+      </c>
+      <c r="H8">
+        <v>0.710799</v>
+      </c>
+      <c r="I8">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J8">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N8">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O8">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P8">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q8">
+        <v>7.639340131616333</v>
+      </c>
+      <c r="R8">
+        <v>68.754061184547</v>
+      </c>
+      <c r="S8">
+        <v>0.1393992760101082</v>
+      </c>
+      <c r="T8">
+        <v>0.1640292759632571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.281123305268752</v>
-      </c>
-      <c r="H5">
-        <v>0.281123305268752</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="N5">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="O5">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="P5">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="Q5">
-        <v>6.760758777770843</v>
-      </c>
-      <c r="R5">
-        <v>6.760758777770843</v>
-      </c>
-      <c r="S5">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="T5">
-        <v>0.4108839724208816</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.236933</v>
+      </c>
+      <c r="H9">
+        <v>0.710799</v>
+      </c>
+      <c r="I9">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J9">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.987976</v>
+      </c>
+      <c r="O9">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P9">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q9">
+        <v>0.2359833725359999</v>
+      </c>
+      <c r="R9">
+        <v>2.123850352824</v>
+      </c>
+      <c r="S9">
+        <v>0.004306119470423675</v>
+      </c>
+      <c r="T9">
+        <v>0.005066953567919975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.236933</v>
+      </c>
+      <c r="H10">
+        <v>0.710799</v>
+      </c>
+      <c r="I10">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J10">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.192074</v>
+      </c>
+      <c r="O10">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P10">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q10">
+        <v>0.09414722301399997</v>
+      </c>
+      <c r="R10">
+        <v>0.8473250071259999</v>
+      </c>
+      <c r="S10">
+        <v>0.001717956590543509</v>
+      </c>
+      <c r="T10">
+        <v>0.002021496694593476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.236933</v>
+      </c>
+      <c r="H11">
+        <v>0.710799</v>
+      </c>
+      <c r="I11">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J11">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.2807625</v>
+      </c>
+      <c r="N11">
+        <v>48.561525</v>
+      </c>
+      <c r="O11">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P11">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q11">
+        <v>5.7529139014125</v>
+      </c>
+      <c r="R11">
+        <v>34.517483408475</v>
+      </c>
+      <c r="S11">
+        <v>0.1049766104125164</v>
+      </c>
+      <c r="T11">
+        <v>0.08234972180579267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J12">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N12">
+        <v>10.412531</v>
+      </c>
+      <c r="O12">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P12">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q12">
+        <v>0.4143065098547778</v>
+      </c>
+      <c r="R12">
+        <v>3.728758588693</v>
+      </c>
+      <c r="S12">
+        <v>0.007560080651600884</v>
+      </c>
+      <c r="T12">
+        <v>0.008895846456304412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J13">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N13">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P13">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q13">
+        <v>3.848726038095444</v>
+      </c>
+      <c r="R13">
+        <v>34.638534342859</v>
+      </c>
+      <c r="S13">
+        <v>0.07022983844525355</v>
+      </c>
+      <c r="T13">
+        <v>0.08263851779514356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J14">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.987976</v>
+      </c>
+      <c r="O14">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P14">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q14">
+        <v>0.1188892410586666</v>
+      </c>
+      <c r="R14">
+        <v>1.070003169528</v>
+      </c>
+      <c r="S14">
+        <v>0.00216943791524345</v>
+      </c>
+      <c r="T14">
+        <v>0.002552748770795748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J15">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.192074</v>
+      </c>
+      <c r="O15">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P15">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q15">
+        <v>0.04743169729133332</v>
+      </c>
+      <c r="R15">
+        <v>0.4268852756219999</v>
+      </c>
+      <c r="S15">
+        <v>0.0008655124851658515</v>
+      </c>
+      <c r="T15">
+        <v>0.001018437041729107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J16">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.2807625</v>
+      </c>
+      <c r="N16">
+        <v>48.561525</v>
+      </c>
+      <c r="O16">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P16">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q16">
+        <v>2.8983379645125</v>
+      </c>
+      <c r="R16">
+        <v>17.390027787075</v>
+      </c>
+      <c r="S16">
+        <v>0.05288758019996281</v>
+      </c>
+      <c r="T16">
+        <v>0.04148807528966666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.062692</v>
+      </c>
+      <c r="H17">
+        <v>0.188076</v>
+      </c>
+      <c r="I17">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J17">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N17">
+        <v>10.412531</v>
+      </c>
+      <c r="O17">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P17">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q17">
+        <v>0.2175941311506667</v>
+      </c>
+      <c r="R17">
+        <v>1.958347180356</v>
+      </c>
+      <c r="S17">
+        <v>0.003970560784552176</v>
+      </c>
+      <c r="T17">
+        <v>0.004672106120629843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.062692</v>
+      </c>
+      <c r="H18">
+        <v>0.188076</v>
+      </c>
+      <c r="I18">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J18">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N18">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O18">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P18">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q18">
+        <v>2.021354186758667</v>
+      </c>
+      <c r="R18">
+        <v>18.192187680828</v>
+      </c>
+      <c r="S18">
+        <v>0.03688477084925149</v>
+      </c>
+      <c r="T18">
+        <v>0.04340181979162258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.062692</v>
+      </c>
+      <c r="H19">
+        <v>0.188076</v>
+      </c>
+      <c r="I19">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J19">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.987976</v>
+      </c>
+      <c r="O19">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P19">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q19">
+        <v>0.06244073046399999</v>
+      </c>
+      <c r="R19">
+        <v>0.5619665741759999</v>
+      </c>
+      <c r="S19">
+        <v>0.001139390637183512</v>
+      </c>
+      <c r="T19">
+        <v>0.001340705824347132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.062692</v>
+      </c>
+      <c r="H20">
+        <v>0.188076</v>
+      </c>
+      <c r="I20">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J20">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.192074</v>
+      </c>
+      <c r="O20">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P20">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q20">
+        <v>0.024911167736</v>
+      </c>
+      <c r="R20">
+        <v>0.224200509624</v>
+      </c>
+      <c r="S20">
+        <v>0.0004545678929248085</v>
+      </c>
+      <c r="T20">
+        <v>0.0005348840000230201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.062692</v>
+      </c>
+      <c r="H21">
+        <v>0.188076</v>
+      </c>
+      <c r="I21">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J21">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.2807625</v>
+      </c>
+      <c r="N21">
+        <v>48.561525</v>
+      </c>
+      <c r="O21">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P21">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q21">
+        <v>1.52220956265</v>
+      </c>
+      <c r="R21">
+        <v>9.1332573759</v>
+      </c>
+      <c r="S21">
+        <v>0.02777660207730235</v>
+      </c>
+      <c r="T21">
+        <v>0.02178957240843932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.0564905</v>
+      </c>
+      <c r="H22">
+        <v>0.112981</v>
+      </c>
+      <c r="I22">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J22">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N22">
+        <v>10.412531</v>
+      </c>
+      <c r="O22">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P22">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q22">
+        <v>0.1960696941518334</v>
+      </c>
+      <c r="R22">
+        <v>1.176418164911</v>
+      </c>
+      <c r="S22">
+        <v>0.003577792445603023</v>
+      </c>
+      <c r="T22">
+        <v>0.002806627223116614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.0564905</v>
+      </c>
+      <c r="H23">
+        <v>0.112981</v>
+      </c>
+      <c r="I23">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J23">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N23">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O23">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P23">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q23">
+        <v>1.821401593298833</v>
+      </c>
+      <c r="R23">
+        <v>10.928409559793</v>
+      </c>
+      <c r="S23">
+        <v>0.03323612498659544</v>
+      </c>
+      <c r="T23">
+        <v>0.02607233778832659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.0564905</v>
+      </c>
+      <c r="H24">
+        <v>0.112981</v>
+      </c>
+      <c r="I24">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J24">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N24">
+        <v>2.987976</v>
+      </c>
+      <c r="O24">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P24">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q24">
+        <v>0.05626408607599999</v>
+      </c>
+      <c r="R24">
+        <v>0.337584516456</v>
+      </c>
+      <c r="S24">
+        <v>0.0010266819815896</v>
+      </c>
+      <c r="T24">
+        <v>0.0008053886978698152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.0564905</v>
+      </c>
+      <c r="H25">
+        <v>0.112981</v>
+      </c>
+      <c r="I25">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J25">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.192074</v>
+      </c>
+      <c r="O25">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P25">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q25">
+        <v>0.02244695209899999</v>
+      </c>
+      <c r="R25">
+        <v>0.134681712594</v>
+      </c>
+      <c r="S25">
+        <v>0.0004096019835907117</v>
+      </c>
+      <c r="T25">
+        <v>0.000321315474630473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.0564905</v>
+      </c>
+      <c r="H26">
+        <v>0.112981</v>
+      </c>
+      <c r="I26">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J26">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.2807625</v>
+      </c>
+      <c r="N26">
+        <v>48.561525</v>
+      </c>
+      <c r="O26">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P26">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q26">
+        <v>1.37163241400625</v>
+      </c>
+      <c r="R26">
+        <v>5.486529656025001</v>
+      </c>
+      <c r="S26">
+        <v>0.0250289373388606</v>
+      </c>
+      <c r="T26">
+        <v>0.01308943023180992</v>
       </c>
     </row>
   </sheetData>
